--- a/market_report_2025-07-04.xlsx
+++ b/market_report_2025-07-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="178">
   <si>
     <t>Ticker</t>
   </si>
@@ -184,139 +184,151 @@
     <t>ABBV</t>
   </si>
   <si>
+    <t>AFL</t>
+  </si>
+  <si>
     <t>AOS</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
     <t>AES</t>
   </si>
   <si>
     <t>ABT</t>
   </si>
   <si>
-    <t>AMD</t>
+    <t>ADBE</t>
   </si>
   <si>
     <t>ACN</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
     <t>MMM</t>
   </si>
   <si>
-    <t>AFL</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
+    <t>IONQ</t>
+  </si>
+  <si>
+    <t>NXT</t>
+  </si>
+  <si>
     <t>CRDO</t>
   </si>
   <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>HIMS</t>
+  </si>
+  <si>
     <t>HQY</t>
   </si>
   <si>
     <t>BPMC</t>
   </si>
   <si>
-    <t>HIMS</t>
-  </si>
-  <si>
-    <t>IONQ</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>NXT</t>
+    <t>FLR</t>
   </si>
   <si>
     <t>ENSG</t>
   </si>
   <si>
-    <t>FLR</t>
-  </si>
-  <si>
     <t>AACBR</t>
   </si>
   <si>
+    <t>AACB</t>
+  </si>
+  <si>
+    <t>AACIW</t>
+  </si>
+  <si>
+    <t>AACI</t>
+  </si>
+  <si>
     <t>AACIU</t>
   </si>
   <si>
-    <t>AACIW</t>
-  </si>
-  <si>
     <t>AAME</t>
   </si>
   <si>
-    <t>AACB</t>
+    <t>AACBU</t>
+  </si>
+  <si>
+    <t>AACG</t>
+  </si>
+  <si>
+    <t>AAL</t>
   </si>
   <si>
     <t>AAOI</t>
   </si>
   <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>AACG</t>
-  </si>
-  <si>
-    <t>AACBU</t>
-  </si>
-  <si>
-    <t>AACI</t>
-  </si>
-  <si>
     <t>Healthcare</t>
   </si>
   <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
     <t>Industrials</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
     <t>Utilities</t>
   </si>
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
     <t>Drug Manufacturers - General</t>
   </si>
   <si>
+    <t>Insurance - Life</t>
+  </si>
+  <si>
     <t>Specialty Industrial Machinery</t>
   </si>
   <si>
+    <t>Diagnostics &amp; Research</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
     <t>Utilities - Diversified</t>
   </si>
   <si>
     <t>Medical Devices</t>
   </si>
   <si>
-    <t>Semiconductors</t>
+    <t>Software - Application</t>
   </si>
   <si>
     <t>Information Technology Services</t>
   </si>
   <si>
-    <t>Diagnostics &amp; Research</t>
-  </si>
-  <si>
-    <t>Software - Application</t>
-  </si>
-  <si>
     <t>Conglomerates</t>
   </si>
   <si>
-    <t>Insurance - Life</t>
+    <t>Computer Hardware</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Electronic Components</t>
+  </si>
+  <si>
+    <t>Household &amp; Personal Products</t>
   </si>
   <si>
     <t>Health Information Services</t>
@@ -325,57 +337,45 @@
     <t>Biotechnology</t>
   </si>
   <si>
-    <t>Household &amp; Personal Products</t>
-  </si>
-  <si>
-    <t>Computer Hardware</t>
-  </si>
-  <si>
-    <t>Electronic Components</t>
-  </si>
-  <si>
-    <t>Solar</t>
+    <t>Engineering &amp; Construction</t>
   </si>
   <si>
     <t>Medical Care Facilities</t>
   </si>
   <si>
-    <t>Engineering &amp; Construction</t>
-  </si>
-  <si>
     <t>Shell Companies</t>
   </si>
   <si>
+    <t>Education &amp; Training Services</t>
+  </si>
+  <si>
+    <t>Airlines</t>
+  </si>
+  <si>
     <t>Communication Equipment</t>
   </si>
   <si>
-    <t>Airlines</t>
-  </si>
-  <si>
-    <t>Education &amp; Training Services</t>
-  </si>
-  <si>
     <t>Health Care &amp; Social Assistance</t>
   </si>
   <si>
+    <t>Finance &amp; Insurance</t>
+  </si>
+  <si>
     <t>Machinery</t>
   </si>
   <si>
     <t>Computer &amp; Electronic Products</t>
   </si>
   <si>
+    <t>Information</t>
+  </si>
+  <si>
     <t>Professional, Scientific &amp; Technical Services</t>
   </si>
   <si>
-    <t>Information</t>
-  </si>
-  <si>
     <t>Management of Companies &amp; Support Services</t>
   </si>
   <si>
-    <t>Finance &amp; Insurance</t>
-  </si>
-  <si>
     <t>Miscellaneous Manufacturing</t>
   </si>
   <si>
@@ -403,114 +403,114 @@
     <t>2.2%</t>
   </si>
   <si>
+    <t>1.7%</t>
+  </si>
+  <si>
     <t>1.9%</t>
   </si>
   <si>
+    <t>2.3%</t>
+  </si>
+  <si>
+    <t>3.6%</t>
+  </si>
+  <si>
     <t>4.2%</t>
   </si>
   <si>
-    <t>3.6%</t>
+    <t>2.4%</t>
   </si>
   <si>
     <t>2.1%</t>
   </si>
   <si>
-    <t>2.3%</t>
-  </si>
-  <si>
-    <t>2.4%</t>
-  </si>
-  <si>
-    <t>1.7%</t>
-  </si>
-  <si>
     <t>4.1%</t>
   </si>
   <si>
+    <t>7.6%</t>
+  </si>
+  <si>
+    <t>5.0%</t>
+  </si>
+  <si>
     <t>5.3%</t>
   </si>
   <si>
+    <t>3.4%</t>
+  </si>
+  <si>
+    <t>10.1%</t>
+  </si>
+  <si>
     <t>2.9%</t>
   </si>
   <si>
     <t>1.0%</t>
   </si>
   <si>
-    <t>10.1%</t>
-  </si>
-  <si>
-    <t>7.6%</t>
-  </si>
-  <si>
-    <t>3.4%</t>
-  </si>
-  <si>
-    <t>5.0%</t>
-  </si>
-  <si>
     <t>3.3%</t>
   </si>
   <si>
     <t>6.6%</t>
   </si>
   <si>
+    <t>4.8%</t>
+  </si>
+  <si>
     <t>8.4%</t>
   </si>
   <si>
-    <t>4.8%</t>
-  </si>
-  <si>
     <t>2025-07-31</t>
   </si>
   <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
     <t>2025-07-21 , 2025-07-25</t>
   </si>
   <si>
+    <t>2025-08-19 , 2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-07-28 , 2025-08-01</t>
+  </si>
+  <si>
     <t>2025-07-17</t>
   </si>
   <si>
-    <t>2025-07-28 , 2025-08-01</t>
+    <t>2025-09-10 , 2025-09-15</t>
   </si>
   <si>
     <t>2025-09-24 , 2025-09-29</t>
   </si>
   <si>
-    <t>2025-08-19 , 2025-08-25</t>
-  </si>
-  <si>
-    <t>2025-09-10 , 2025-09-15</t>
-  </si>
-  <si>
     <t>2025-07-18</t>
   </si>
   <si>
-    <t>2025-08-05</t>
+    <t>2025-08-05 , 2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-07-30 , 2025-08-04</t>
   </si>
   <si>
     <t>2025-09-02 , 2025-09-08</t>
   </si>
   <si>
+    <t>2025-08-18 , 2025-08-22</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
     <t>2025-09-01 , 2025-09-05</t>
   </si>
   <si>
-    <t>2025-07-30 , 2025-08-04</t>
-  </si>
-  <si>
-    <t>2025-08-04</t>
-  </si>
-  <si>
-    <t>2025-08-05 , 2025-08-11</t>
-  </si>
-  <si>
-    <t>2025-08-18 , 2025-08-22</t>
+    <t>2025-08-01</t>
   </si>
   <si>
     <t>2025-07-23 , 2025-07-28</t>
   </si>
   <si>
-    <t>2025-08-01</t>
-  </si>
-  <si>
     <t>2025-05-07</t>
   </si>
   <si>
@@ -520,31 +520,19 @@
     <t>2025-08-04 , 2025-08-08</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Strong Buy</t>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Hold</t>
-  </si>
-  <si>
-    <t>Sell</t>
-  </si>
-  <si>
-    <t>Buy</t>
-  </si>
-  <si>
-    <t>Strong Buy</t>
   </si>
   <si>
     <t>2025-07-03</t>
@@ -1229,11 +1217,11 @@
       <c r="AF2" t="s">
         <v>148</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH2" t="s">
         <v>168</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>173</v>
       </c>
       <c r="AI2">
         <v>28</v>
@@ -1293,10 +1281,10 @@
         <v>0.3207945900253593</v>
       </c>
       <c r="BB2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="BC2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:55">
@@ -1316,154 +1304,154 @@
         <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="1">
-        <v>67.92</v>
+        <v>104.57</v>
       </c>
       <c r="H3">
-        <v>9.65</v>
+        <v>56.54</v>
       </c>
       <c r="I3">
-        <v>116.24</v>
+        <v>540.64</v>
       </c>
       <c r="J3">
-        <v>114.1</v>
+        <v>535.87</v>
       </c>
       <c r="K3" s="1">
-        <v>66.2334</v>
+        <v>104.5738</v>
       </c>
       <c r="L3" s="2">
-        <v>0.02546449374484774</v>
+        <v>-3.6337973756452E-05</v>
       </c>
       <c r="M3" s="1">
-        <v>70.5067</v>
+        <v>106.88415</v>
       </c>
       <c r="N3" s="2">
-        <v>-0.03668729354798896</v>
+        <v>-0.02165101186658651</v>
       </c>
       <c r="O3">
-        <v>70.51000000000001</v>
+        <v>78.64</v>
       </c>
       <c r="P3" s="2">
-        <v>-0.03673237838604458</v>
+        <v>0.3297304170905391</v>
       </c>
       <c r="Q3">
-        <v>0.3838330534398295</v>
+        <v>0.166954757950549</v>
       </c>
       <c r="R3">
-        <v>-0.1658821816398318</v>
+        <v>-0.1063294579921795</v>
       </c>
       <c r="S3">
-        <v>61.9358305921187</v>
+        <v>52.36157367774315</v>
       </c>
       <c r="T3">
-        <v>73.26000000000001</v>
+        <v>77.97</v>
       </c>
       <c r="U3">
-        <v>56.67</v>
+        <v>75.83</v>
       </c>
       <c r="V3">
-        <v>5.59701257960482</v>
+        <v>1.801010954182337</v>
       </c>
       <c r="W3">
-        <v>58.67126969335457</v>
+        <v>71.1965160439216</v>
       </c>
       <c r="X3">
-        <v>1.312904364001842</v>
+        <v>1.819745283940947</v>
       </c>
       <c r="Y3" t="s">
         <v>129</v>
       </c>
       <c r="Z3" s="1">
-        <v>67.95033365885416</v>
+        <v>105.3126653035482</v>
       </c>
       <c r="AA3" s="1">
-        <v>70.22345134988809</v>
+        <v>107.0504874082829</v>
       </c>
       <c r="AB3" s="1">
-        <v>65.67721596782023</v>
+        <v>103.5748431988135</v>
       </c>
       <c r="AC3">
-        <v>3.97</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="AD3">
-        <v>1.95</v>
+        <v>4.67</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.0344</v>
+        <v>0.0177</v>
       </c>
       <c r="AF3" t="s">
         <v>149</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>169</v>
+      <c r="AG3" s="1">
+        <v>3</v>
       </c>
       <c r="AH3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AI3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
         <v>1</v>
       </c>
-      <c r="AK3">
-        <v>4</v>
-      </c>
       <c r="AL3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3">
         <v>1</v>
       </c>
       <c r="AO3" s="2">
-        <v>0.0625</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AP3" s="2">
-        <v>0.25</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AQ3" s="2">
-        <v>0.625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AR3" s="2">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AS3" s="2">
-        <v>0.0625</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AT3" s="2">
-        <v>0.3125</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AU3" s="2">
-        <v>0.0625</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AV3" s="1">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="AW3" s="2">
-        <v>-0.1313309776207303</v>
+        <v>-0.1010806158554078</v>
       </c>
       <c r="AX3" s="1">
-        <v>74.85538</v>
+        <v>105.61538</v>
       </c>
       <c r="AY3" s="2">
-        <v>0.1021110129564192</v>
+        <v>0.009996939848905123</v>
       </c>
       <c r="AZ3" s="1">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="BA3" s="2">
-        <v>0.2367491166077738</v>
+        <v>0.1475566606101177</v>
       </c>
       <c r="BB3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="BC3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:55">
@@ -1477,160 +1465,160 @@
         <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G4" s="1">
-        <v>11.52</v>
+        <v>67.92</v>
       </c>
       <c r="H4">
-        <v>8.199999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="I4">
-        <v>711.92</v>
+        <v>116.24</v>
       </c>
       <c r="J4">
-        <v>707.75</v>
+        <v>114.1</v>
       </c>
       <c r="K4" s="1">
-        <v>10.7248</v>
+        <v>66.2334</v>
       </c>
       <c r="L4" s="2">
-        <v>0.07414590481873783</v>
+        <v>0.02546449374484774</v>
       </c>
       <c r="M4" s="1">
-        <v>12.80075</v>
+        <v>70.5067</v>
       </c>
       <c r="N4" s="2">
-        <v>-0.1000527312852763</v>
+        <v>-0.03668729354798896</v>
       </c>
       <c r="O4">
-        <v>19.57</v>
+        <v>70.51000000000001</v>
       </c>
       <c r="P4" s="2">
-        <v>-0.4113438937148697</v>
+        <v>-0.03673237838604458</v>
       </c>
       <c r="Q4">
-        <v>0.06421489279691883</v>
+        <v>0.3838330534398295</v>
       </c>
       <c r="R4">
-        <v>-0.004136781827351988</v>
+        <v>-0.1658821816398318</v>
       </c>
       <c r="S4">
-        <v>60.95786113536968</v>
+        <v>61.9358305921187</v>
       </c>
       <c r="T4">
-        <v>44.43</v>
+        <v>73.26000000000001</v>
       </c>
       <c r="U4">
-        <v>40.34</v>
+        <v>56.67</v>
       </c>
       <c r="V4">
-        <v>0.5235638692580755</v>
+        <v>5.59701257960482</v>
       </c>
       <c r="W4">
-        <v>46.34249587506724</v>
+        <v>58.67126969335457</v>
       </c>
       <c r="X4">
-        <v>0.4793442624937468</v>
+        <v>1.312904364001842</v>
       </c>
       <c r="Y4" t="s">
         <v>130</v>
       </c>
       <c r="Z4" s="1">
-        <v>10.61666669845581</v>
+        <v>67.95033365885416</v>
       </c>
       <c r="AA4" s="1">
-        <v>11.96015110594257</v>
+        <v>70.22345134988809</v>
       </c>
       <c r="AB4" s="1">
-        <v>9.273182290969043</v>
+        <v>65.67721596782023</v>
       </c>
       <c r="AC4">
-        <v>38.84</v>
+        <v>3.97</v>
       </c>
       <c r="AD4">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.06270000000000001</v>
+        <v>0.0344</v>
       </c>
       <c r="AF4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>4</v>
       </c>
       <c r="AH4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI4">
+        <v>16</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>4</v>
+      </c>
+      <c r="AL4">
+        <v>10</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0.0625</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>0.0625</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>0.0625</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>59</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>-0.1313309776207303</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>74.85538</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>0.1021110129564192</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>84</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>0.2367491166077738</v>
+      </c>
+      <c r="BB4" t="s">
         <v>173</v>
       </c>
-      <c r="AI4">
-        <v>14</v>
-      </c>
-      <c r="AJ4">
-        <v>3</v>
-      </c>
-      <c r="AK4">
-        <v>5</v>
-      </c>
-      <c r="AL4">
-        <v>4</v>
-      </c>
-      <c r="AM4">
-        <v>2</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="AP4" s="2">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="AQ4" s="2">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AR4" s="2">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="AS4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="AU4" s="2">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AW4" s="2">
-        <v>-0.5659722222222222</v>
-      </c>
-      <c r="AX4" s="1">
-        <v>13.66667</v>
-      </c>
-      <c r="AY4" s="2">
-        <v>0.1863428819444445</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>23</v>
-      </c>
-      <c r="BA4" s="2">
-        <v>0.9965277777777779</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>177</v>
-      </c>
       <c r="BC4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:55">
@@ -1653,97 +1641,97 @@
         <v>126</v>
       </c>
       <c r="G5" s="1">
-        <v>134.44</v>
+        <v>121.38</v>
       </c>
       <c r="H5">
-        <v>233.9</v>
+        <v>34.48</v>
       </c>
       <c r="I5">
-        <v>1739.84</v>
+        <v>284.06</v>
       </c>
       <c r="J5">
-        <v>1729.78</v>
+        <v>282.98</v>
       </c>
       <c r="K5" s="1">
-        <v>133.1416</v>
+        <v>113.225</v>
       </c>
       <c r="L5" s="2">
-        <v>0.009752023409662995</v>
+        <v>0.07202472952086554</v>
       </c>
       <c r="M5" s="1">
-        <v>124.35465</v>
+        <v>128.2465</v>
       </c>
       <c r="N5" s="2">
-        <v>0.08110151088037311</v>
+        <v>-0.05354142218306154</v>
       </c>
       <c r="O5">
-        <v>113.59</v>
+        <v>133.84</v>
       </c>
       <c r="P5" s="2">
-        <v>0.1835548903952812</v>
+        <v>-0.09309623430962349</v>
       </c>
       <c r="Q5">
-        <v>0.5721047078386619</v>
+        <v>1.922022465022422</v>
       </c>
       <c r="R5">
-        <v>0.664317380823002</v>
+        <v>1.746016286934438</v>
       </c>
       <c r="S5">
-        <v>50.80987670459104</v>
+        <v>63.53619465941375</v>
       </c>
       <c r="T5">
-        <v>55.3</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="U5">
-        <v>51.92</v>
+        <v>62.05</v>
       </c>
       <c r="V5">
-        <v>0.3208775107802705</v>
+        <v>1.982860592265902</v>
       </c>
       <c r="W5">
-        <v>48.6583656546148</v>
+        <v>59.49255868740451</v>
       </c>
       <c r="X5">
-        <v>2.527258070312556</v>
+        <v>2.775172392676096</v>
       </c>
       <c r="Y5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z5" s="1">
-        <v>96.05033391316732</v>
+        <v>119.2333320617676</v>
       </c>
       <c r="AA5" s="1">
-        <v>161.6822197744633</v>
+        <v>124.7213374458351</v>
       </c>
       <c r="AB5" s="1">
-        <v>30.41844805187132</v>
+        <v>113.7453266777</v>
       </c>
       <c r="AC5">
-        <v>20.8</v>
+        <v>4.11</v>
       </c>
       <c r="AD5">
-        <v>3.54</v>
+        <v>1.73</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.012</v>
+        <v>0.0164</v>
       </c>
       <c r="AF5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH5" t="s">
         <v>170</v>
       </c>
-      <c r="AH5" t="s">
-        <v>175</v>
-      </c>
       <c r="AI5">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AJ5">
+        <v>3</v>
+      </c>
+      <c r="AK5">
         <v>7</v>
-      </c>
-      <c r="AK5">
-        <v>12</v>
       </c>
       <c r="AL5">
         <v>9</v>
@@ -1752,52 +1740,52 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="2">
-        <v>0.2413793103448276</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="AP5" s="2">
-        <v>0.4137931034482759</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="AQ5" s="2">
-        <v>0.3103448275862069</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AR5" s="2">
         <v>0</v>
       </c>
       <c r="AS5" s="2">
-        <v>0.03448275862068965</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="2">
-        <v>0.6551724137931034</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="AU5" s="2">
-        <v>0.03448275862068965</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="1">
-        <v>120.12</v>
+        <v>113.2</v>
       </c>
       <c r="AW5" s="2">
-        <v>-0.1065159178815828</v>
+        <v>-0.06739166254737183</v>
       </c>
       <c r="AX5" s="1">
-        <v>141.31693</v>
+        <v>136.5125</v>
       </c>
       <c r="AY5" s="2">
-        <v>0.05115240999702481</v>
+        <v>0.1246704564178612</v>
       </c>
       <c r="AZ5" s="1">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="BA5" s="2">
-        <v>0.1826837250818209</v>
+        <v>0.3593672763222936</v>
       </c>
       <c r="BB5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="BC5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:55">
@@ -1811,7 +1799,7 @@
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
         <v>124</v>
@@ -1874,7 +1862,7 @@
         <v>5.028568239380124</v>
       </c>
       <c r="Y6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z6" s="1">
         <v>135.4536605834961</v>
@@ -1895,13 +1883,13 @@
         <v>0.0254</v>
       </c>
       <c r="AF6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH6" t="s">
         <v>168</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>173</v>
       </c>
       <c r="AI6">
         <v>50</v>
@@ -1961,10 +1949,10 @@
         <v>0.4502211587267059</v>
       </c>
       <c r="BB6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="BC6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:55">
@@ -1972,166 +1960,166 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
         <v>126</v>
       </c>
       <c r="G7" s="1">
-        <v>304.78</v>
+        <v>11.52</v>
       </c>
       <c r="H7">
-        <v>189.83</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I7">
-        <v>622.85</v>
+        <v>711.92</v>
       </c>
       <c r="J7">
-        <v>621.76</v>
+        <v>707.75</v>
       </c>
       <c r="K7" s="1">
-        <v>308.6248</v>
+        <v>10.7248</v>
       </c>
       <c r="L7" s="2">
-        <v>-0.01245784525417277</v>
+        <v>0.07414590481873783</v>
       </c>
       <c r="M7" s="1">
-        <v>338.97015</v>
+        <v>12.80075</v>
       </c>
       <c r="N7" s="2">
-        <v>-0.1008647811614091</v>
+        <v>-0.1000527312852763</v>
       </c>
       <c r="O7">
-        <v>319</v>
+        <v>19.57</v>
       </c>
       <c r="P7" s="2">
-        <v>-0.04457680250783708</v>
+        <v>-0.4113438937148697</v>
       </c>
       <c r="Q7">
-        <v>-3.280766736428234</v>
+        <v>0.06421489279691883</v>
       </c>
       <c r="R7">
-        <v>-3.251963588104156</v>
+        <v>-0.004136781827351988</v>
       </c>
       <c r="S7">
-        <v>49.08766729578171</v>
+        <v>60.95786113536968</v>
       </c>
       <c r="T7">
-        <v>53</v>
+        <v>44.43</v>
       </c>
       <c r="U7">
-        <v>44.09</v>
+        <v>40.34</v>
       </c>
       <c r="V7">
-        <v>-3.038204498753151</v>
+        <v>0.5235638692580755</v>
       </c>
       <c r="W7">
-        <v>38.07764472952538</v>
+        <v>46.34249587506724</v>
       </c>
       <c r="X7">
-        <v>6.447193912545087</v>
+        <v>0.4793442624937468</v>
       </c>
       <c r="Y7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z7" s="1">
-        <v>286.6793314615886</v>
+        <v>10.61666669845581</v>
       </c>
       <c r="AA7" s="1">
-        <v>307.3320577028446</v>
+        <v>11.96015110594257</v>
       </c>
       <c r="AB7" s="1">
-        <v>266.0266052203325</v>
+        <v>9.273182290969043</v>
       </c>
       <c r="AC7">
-        <v>8.65</v>
+        <v>38.84</v>
       </c>
       <c r="AD7">
-        <v>3.03</v>
+        <v>2.09</v>
       </c>
       <c r="AE7" s="2">
-        <v>0.0139</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="AF7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH7" t="s">
         <v>168</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7">
+        <v>14</v>
+      </c>
+      <c r="AJ7">
+        <v>3</v>
+      </c>
+      <c r="AK7">
+        <v>5</v>
+      </c>
+      <c r="AL7">
+        <v>4</v>
+      </c>
+      <c r="AM7">
+        <v>2</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>-0.5659722222222222</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>13.66667</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>0.1863428819444445</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>23</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>0.9965277777777779</v>
+      </c>
+      <c r="BB7" t="s">
         <v>173</v>
       </c>
-      <c r="AI7">
-        <v>25</v>
-      </c>
-      <c r="AJ7">
-        <v>4</v>
-      </c>
-      <c r="AK7">
-        <v>13</v>
-      </c>
-      <c r="AL7">
-        <v>7</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>0.28</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>263</v>
-      </c>
-      <c r="AW7" s="2">
-        <v>-0.1370824857274099</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>340.79782</v>
-      </c>
-      <c r="AY7" s="2">
-        <v>0.1181764551479757</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>395</v>
-      </c>
-      <c r="BA7" s="2">
-        <v>0.2960167990025593</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>177</v>
-      </c>
       <c r="BC7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:55">
@@ -2154,97 +2142,97 @@
         <v>126</v>
       </c>
       <c r="G8" s="1">
-        <v>121.38</v>
+        <v>134.44</v>
       </c>
       <c r="H8">
-        <v>34.48</v>
+        <v>233.9</v>
       </c>
       <c r="I8">
-        <v>284.06</v>
+        <v>1739.84</v>
       </c>
       <c r="J8">
-        <v>282.98</v>
+        <v>1729.78</v>
       </c>
       <c r="K8" s="1">
-        <v>113.225</v>
+        <v>133.1416</v>
       </c>
       <c r="L8" s="2">
-        <v>0.07202472952086554</v>
+        <v>0.009752023409662995</v>
       </c>
       <c r="M8" s="1">
-        <v>128.2465</v>
+        <v>124.35465</v>
       </c>
       <c r="N8" s="2">
-        <v>-0.05354142218306154</v>
+        <v>0.08110151088037311</v>
       </c>
       <c r="O8">
-        <v>133.84</v>
+        <v>113.59</v>
       </c>
       <c r="P8" s="2">
-        <v>-0.09309623430962349</v>
+        <v>0.1835548903952812</v>
       </c>
       <c r="Q8">
-        <v>1.922022465022422</v>
+        <v>0.5721047078386619</v>
       </c>
       <c r="R8">
-        <v>1.746016286934438</v>
+        <v>0.664317380823002</v>
       </c>
       <c r="S8">
-        <v>63.53619465941375</v>
+        <v>50.80987670459104</v>
       </c>
       <c r="T8">
-        <v>66.73999999999999</v>
+        <v>55.3</v>
       </c>
       <c r="U8">
-        <v>62.05</v>
+        <v>51.92</v>
       </c>
       <c r="V8">
-        <v>1.982860592265902</v>
+        <v>0.3208775107802705</v>
       </c>
       <c r="W8">
-        <v>59.49255868740451</v>
+        <v>48.6583656546148</v>
       </c>
       <c r="X8">
-        <v>2.775172392676096</v>
+        <v>2.527258070312556</v>
       </c>
       <c r="Y8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Z8" s="1">
-        <v>119.2333320617676</v>
+        <v>96.05033391316732</v>
       </c>
       <c r="AA8" s="1">
-        <v>124.7213374458351</v>
+        <v>161.6822197744633</v>
       </c>
       <c r="AB8" s="1">
-        <v>113.7453266777</v>
+        <v>30.41844805187132</v>
       </c>
       <c r="AC8">
-        <v>4.11</v>
+        <v>20.8</v>
       </c>
       <c r="AD8">
-        <v>1.73</v>
+        <v>3.54</v>
       </c>
       <c r="AE8" s="2">
-        <v>0.0164</v>
+        <v>0.012</v>
       </c>
       <c r="AF8" t="s">
         <v>153</v>
       </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AG8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH8" t="s">
         <v>170</v>
       </c>
-      <c r="AH8" t="s">
-        <v>175</v>
-      </c>
       <c r="AI8">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AJ8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AK8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AL8">
         <v>9</v>
@@ -2253,52 +2241,52 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="2">
-        <v>0.1578947368421053</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="AP8" s="2">
-        <v>0.3684210526315789</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="AQ8" s="2">
-        <v>0.4736842105263158</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="AR8" s="2">
         <v>0</v>
       </c>
       <c r="AS8" s="2">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="AT8" s="2">
-        <v>0.5263157894736842</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="AU8" s="2">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="AV8" s="1">
-        <v>113.2</v>
+        <v>120.12</v>
       </c>
       <c r="AW8" s="2">
-        <v>-0.06739166254737183</v>
+        <v>-0.1065159178815828</v>
       </c>
       <c r="AX8" s="1">
-        <v>136.5125</v>
+        <v>141.31693</v>
       </c>
       <c r="AY8" s="2">
-        <v>0.1246704564178612</v>
+        <v>0.05115240999702481</v>
       </c>
       <c r="AZ8" s="1">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="BA8" s="2">
-        <v>0.3593672763222936</v>
+        <v>0.1826837250818209</v>
       </c>
       <c r="BB8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="BC8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:55">
@@ -2398,11 +2386,11 @@
       <c r="AF9" t="s">
         <v>154</v>
       </c>
-      <c r="AG9" s="1" t="s">
+      <c r="AG9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH9" t="s">
         <v>170</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>175</v>
       </c>
       <c r="AI9">
         <v>40</v>
@@ -2462,10 +2450,10 @@
         <v>0.5950014500013182</v>
       </c>
       <c r="BB9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="BC9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:55">
@@ -2473,7 +2461,7 @@
         <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>99</v>
@@ -2488,151 +2476,151 @@
         <v>126</v>
       </c>
       <c r="G10" s="1">
-        <v>152.94</v>
+        <v>304.78</v>
       </c>
       <c r="H10">
-        <v>82.31</v>
+        <v>189.83</v>
       </c>
       <c r="I10">
-        <v>538.1799999999999</v>
+        <v>622.85</v>
       </c>
       <c r="J10">
-        <v>537.35</v>
+        <v>621.76</v>
       </c>
       <c r="K10" s="1">
-        <v>146.042</v>
+        <v>308.6248</v>
       </c>
       <c r="L10" s="2">
-        <v>0.0472329877706413</v>
+        <v>-0.01245784525417277</v>
       </c>
       <c r="M10" s="1">
-        <v>140.1215</v>
+        <v>338.97015</v>
       </c>
       <c r="N10" s="2">
-        <v>0.09148132156735404</v>
+        <v>-0.1008647811614091</v>
       </c>
       <c r="O10">
-        <v>113.13</v>
+        <v>319</v>
       </c>
       <c r="P10" s="2">
-        <v>0.3518960487934235</v>
+        <v>-0.04457680250783708</v>
       </c>
       <c r="Q10">
-        <v>1.989644142871498</v>
+        <v>-3.280766736428234</v>
       </c>
       <c r="R10">
-        <v>1.185899977941966</v>
+        <v>-3.251963588104156</v>
       </c>
       <c r="S10">
-        <v>60.66607147540439</v>
+        <v>49.08766729578171</v>
       </c>
       <c r="T10">
-        <v>85.01000000000001</v>
+        <v>53</v>
       </c>
       <c r="U10">
-        <v>70.61</v>
+        <v>44.09</v>
       </c>
       <c r="V10">
-        <v>5.42496361746143</v>
+        <v>-3.038204498753151</v>
       </c>
       <c r="W10">
-        <v>70.1157240083044</v>
+        <v>38.07764472952538</v>
       </c>
       <c r="X10">
-        <v>3.210035169390796</v>
+        <v>6.447193912545087</v>
       </c>
       <c r="Y10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Z10" s="1">
-        <v>133.538742574056</v>
+        <v>286.6793314615886</v>
       </c>
       <c r="AA10" s="1">
-        <v>224.3776635940025</v>
+        <v>307.3320577028446</v>
       </c>
       <c r="AB10" s="1">
-        <v>42.69982155410948</v>
+        <v>266.0266052203325</v>
       </c>
       <c r="AC10">
-        <v>10.31</v>
+        <v>8.65</v>
       </c>
       <c r="AD10">
-        <v>3.4</v>
+        <v>3.03</v>
       </c>
       <c r="AE10" s="2">
-        <v>0.019199999</v>
+        <v>0.0139</v>
       </c>
       <c r="AF10" t="s">
         <v>155</v>
       </c>
-      <c r="AG10" s="1" t="s">
-        <v>170</v>
+      <c r="AG10" s="1">
+        <v>3</v>
       </c>
       <c r="AH10" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI10">
+        <v>25</v>
+      </c>
+      <c r="AJ10">
+        <v>4</v>
+      </c>
+      <c r="AK10">
+        <v>13</v>
+      </c>
+      <c r="AL10">
+        <v>7</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0.28</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>263</v>
+      </c>
+      <c r="AW10" s="2">
+        <v>-0.1370824857274099</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>340.79782</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>0.1181764551479757</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>395</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>0.2960167990025593</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC10" t="s">
         <v>175</v>
-      </c>
-      <c r="AI10">
-        <v>19</v>
-      </c>
-      <c r="AJ10">
-        <v>2</v>
-      </c>
-      <c r="AK10">
-        <v>9</v>
-      </c>
-      <c r="AL10">
-        <v>5</v>
-      </c>
-      <c r="AM10">
-        <v>1</v>
-      </c>
-      <c r="AN10">
-        <v>2</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="AP10" s="2">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="AQ10" s="2">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="AR10" s="2">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="AS10" s="2">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="AT10" s="2">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="AU10" s="2">
-        <v>0.1578947368421053</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>100</v>
-      </c>
-      <c r="AW10" s="2">
-        <v>-0.3461488165293579</v>
-      </c>
-      <c r="AX10" s="1">
-        <v>152.93777</v>
-      </c>
-      <c r="AY10" s="2">
-        <v>-1.45808813913776E-05</v>
-      </c>
-      <c r="AZ10" s="1">
-        <v>184</v>
-      </c>
-      <c r="BA10" s="2">
-        <v>0.2030861775859814</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:55">
@@ -2640,7 +2628,7 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
         <v>100</v>
@@ -2655,151 +2643,151 @@
         <v>126</v>
       </c>
       <c r="G11" s="1">
-        <v>104.57</v>
+        <v>152.94</v>
       </c>
       <c r="H11">
-        <v>56.54</v>
+        <v>82.31</v>
       </c>
       <c r="I11">
-        <v>540.64</v>
+        <v>538.1799999999999</v>
       </c>
       <c r="J11">
-        <v>535.87</v>
+        <v>537.35</v>
       </c>
       <c r="K11" s="1">
-        <v>104.5738</v>
+        <v>146.042</v>
       </c>
       <c r="L11" s="2">
-        <v>-3.6337973756452E-05</v>
+        <v>0.0472329877706413</v>
       </c>
       <c r="M11" s="1">
-        <v>106.88415</v>
+        <v>140.1215</v>
       </c>
       <c r="N11" s="2">
-        <v>-0.02165101186658651</v>
+        <v>0.09148132156735404</v>
       </c>
       <c r="O11">
-        <v>78.64</v>
+        <v>113.13</v>
       </c>
       <c r="P11" s="2">
-        <v>0.3297304170905391</v>
+        <v>0.3518960487934235</v>
       </c>
       <c r="Q11">
-        <v>0.166954757950549</v>
+        <v>1.989644142871498</v>
       </c>
       <c r="R11">
-        <v>-0.1063294579921795</v>
+        <v>1.185899977941966</v>
       </c>
       <c r="S11">
-        <v>52.36157367774315</v>
+        <v>60.66607147540439</v>
       </c>
       <c r="T11">
-        <v>77.97</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="U11">
-        <v>75.83</v>
+        <v>70.61</v>
       </c>
       <c r="V11">
-        <v>1.801010954182337</v>
+        <v>5.42496361746143</v>
       </c>
       <c r="W11">
-        <v>71.1965160439216</v>
+        <v>70.1157240083044</v>
       </c>
       <c r="X11">
-        <v>1.819745283940947</v>
+        <v>3.210035169390796</v>
       </c>
       <c r="Y11" t="s">
         <v>135</v>
       </c>
       <c r="Z11" s="1">
-        <v>105.3126653035482</v>
+        <v>133.538742574056</v>
       </c>
       <c r="AA11" s="1">
-        <v>107.0504874082829</v>
+        <v>224.3776635940025</v>
       </c>
       <c r="AB11" s="1">
-        <v>103.5748431988135</v>
+        <v>42.69982155410948</v>
       </c>
       <c r="AC11">
-        <v>9.529999999999999</v>
+        <v>10.31</v>
       </c>
       <c r="AD11">
-        <v>4.67</v>
+        <v>3.4</v>
       </c>
       <c r="AE11" s="2">
-        <v>0.0177</v>
+        <v>0.019199999</v>
       </c>
       <c r="AF11" t="s">
         <v>156</v>
       </c>
-      <c r="AG11" s="1" t="s">
-        <v>168</v>
+      <c r="AG11" s="1">
+        <v>2</v>
       </c>
       <c r="AH11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AI11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AJ11">
         <v>2</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AL11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AM11">
         <v>1</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" s="2">
-        <v>0.1538461538461539</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="AP11" s="2">
-        <v>0.07692307692307693</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AQ11" s="2">
-        <v>0.6153846153846154</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="AR11" s="2">
-        <v>0.07692307692307693</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="AS11" s="2">
-        <v>0.07692307692307693</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="AT11" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="AU11" s="2">
-        <v>0.1538461538461539</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="AV11" s="1">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AW11" s="2">
-        <v>-0.1010806158554078</v>
+        <v>-0.3461488165293579</v>
       </c>
       <c r="AX11" s="1">
-        <v>105.61538</v>
+        <v>152.93777</v>
       </c>
       <c r="AY11" s="2">
-        <v>0.009996939848905123</v>
+        <v>-1.45808813913776E-05</v>
       </c>
       <c r="AZ11" s="1">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="BA11" s="2">
-        <v>0.1475566606101177</v>
+        <v>0.2030861775859814</v>
       </c>
       <c r="BB11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="BC11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:55">
@@ -2906,10 +2894,10 @@
         <v>-1</v>
       </c>
       <c r="BB12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="BC12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:55">
@@ -2920,10 +2908,10 @@
         <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
         <v>124</v>
@@ -2932,91 +2920,97 @@
         <v>127</v>
       </c>
       <c r="G13" s="1">
-        <v>93.61</v>
+        <v>44.39</v>
       </c>
       <c r="H13">
-        <v>16.07</v>
+        <v>11.61</v>
       </c>
       <c r="I13">
-        <v>171.64</v>
+        <v>261.63</v>
       </c>
       <c r="J13">
-        <v>149.66</v>
+        <v>242.25</v>
       </c>
       <c r="K13" s="1">
-        <v>66.30240000000001</v>
+        <v>36.8328</v>
       </c>
       <c r="L13" s="2">
-        <v>0.4118644272303867</v>
+        <v>0.2051758215503574</v>
       </c>
       <c r="M13" s="1">
-        <v>55.59625</v>
+        <v>29.22865</v>
       </c>
       <c r="N13" s="2">
-        <v>0.6837466555747915</v>
+        <v>0.5187153700222215</v>
+      </c>
+      <c r="O13">
+        <v>14.02</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2.166191155492154</v>
       </c>
       <c r="Q13">
-        <v>7.752897082342145</v>
+        <v>1.583087975078563</v>
       </c>
       <c r="R13">
-        <v>7.846926859413356</v>
+        <v>1.36797757817973</v>
       </c>
       <c r="S13">
-        <v>70.50942339923802</v>
+        <v>60.47364815127145</v>
       </c>
       <c r="T13">
-        <v>89.5</v>
+        <v>60.58</v>
       </c>
       <c r="U13">
-        <v>91.91</v>
+        <v>48.98</v>
       </c>
       <c r="V13">
-        <v>18.23923553792677</v>
+        <v>15.50871464258084</v>
       </c>
       <c r="W13">
-        <v>63.84192589719879</v>
+        <v>52.9367020478783</v>
       </c>
       <c r="X13">
-        <v>4.94758579224883</v>
+        <v>3.367090457038895</v>
       </c>
       <c r="Y13" t="s">
         <v>137</v>
       </c>
       <c r="Z13" s="1">
-        <v>88.57183176676432</v>
+        <v>45.20299898783366</v>
       </c>
       <c r="AA13" s="1">
-        <v>98.18368463780368</v>
+        <v>53.3329239322563</v>
       </c>
       <c r="AB13" s="1">
-        <v>78.95997889572496</v>
+        <v>37.07307404341102</v>
       </c>
       <c r="AC13">
-        <v>7.63</v>
+        <v>35.45</v>
       </c>
       <c r="AD13">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AE13" s="2">
-        <v>0.053200003</v>
+        <v>0.1376</v>
       </c>
       <c r="AF13" t="s">
         <v>157</v>
       </c>
-      <c r="AG13" s="1" t="s">
-        <v>171</v>
+      <c r="AG13" s="1">
+        <v>2</v>
       </c>
       <c r="AH13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AI13">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
         <v>3</v>
-      </c>
-      <c r="AK13">
-        <v>9</v>
       </c>
       <c r="AL13">
         <v>1</v>
@@ -3028,13 +3022,13 @@
         <v>0</v>
       </c>
       <c r="AO13" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.2</v>
       </c>
       <c r="AP13" s="2">
-        <v>0.6923076923076923</v>
+        <v>0.6</v>
       </c>
       <c r="AQ13" s="2">
-        <v>0.07692307692307693</v>
+        <v>0.2</v>
       </c>
       <c r="AR13" s="2">
         <v>0</v>
@@ -3043,34 +3037,34 @@
         <v>0</v>
       </c>
       <c r="AT13" s="2">
-        <v>0.9230769230769231</v>
+        <v>0.8</v>
       </c>
       <c r="AU13" s="2">
         <v>0</v>
       </c>
       <c r="AV13" s="1">
-        <v>34.13</v>
+        <v>30</v>
       </c>
       <c r="AW13" s="2">
-        <v>-0.6354022006195919</v>
+        <v>-0.3241721108357739</v>
       </c>
       <c r="AX13" s="1">
-        <v>84.08692000000001</v>
+        <v>43</v>
       </c>
       <c r="AY13" s="2">
-        <v>-0.1017314389488302</v>
+        <v>-0.03131335886460916</v>
       </c>
       <c r="AZ13" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BA13" s="2">
-        <v>0.06826193782715523</v>
+        <v>0.1263798152737103</v>
       </c>
       <c r="BB13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="BC13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:55">
@@ -3078,166 +3072,160 @@
         <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
         <v>126</v>
       </c>
       <c r="G14" s="1">
-        <v>102.16</v>
+        <v>66.31</v>
       </c>
       <c r="H14">
-        <v>8.83</v>
+        <v>10.06</v>
       </c>
       <c r="I14">
-        <v>86.48</v>
+        <v>147.83</v>
       </c>
       <c r="J14">
-        <v>84.95</v>
+        <v>145.22</v>
       </c>
       <c r="K14" s="1">
-        <v>98.9295</v>
+        <v>53.9363</v>
       </c>
       <c r="L14" s="2">
-        <v>0.03265456714124697</v>
+        <v>0.2294132152186932</v>
       </c>
       <c r="M14" s="1">
-        <v>95.84865000000001</v>
+        <v>43.575</v>
       </c>
       <c r="N14" s="2">
-        <v>0.06584704114246773</v>
-      </c>
-      <c r="O14">
-        <v>72.53</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0.4085206121604852</v>
+        <v>0.5217441193344807</v>
       </c>
       <c r="Q14">
-        <v>0.6961796817270596</v>
+        <v>1.622890358796298</v>
       </c>
       <c r="R14">
-        <v>1.316603653257095</v>
+        <v>1.459504530908114</v>
       </c>
       <c r="S14">
-        <v>49.35530132224686</v>
+        <v>69.10478316705876</v>
       </c>
       <c r="T14">
-        <v>29.53</v>
+        <v>59.06</v>
       </c>
       <c r="U14">
-        <v>28.1</v>
+        <v>56.07</v>
       </c>
       <c r="V14">
-        <v>1.068462417382822</v>
+        <v>9.152259355709877</v>
       </c>
       <c r="W14">
-        <v>59.17481655667551</v>
+        <v>54.08627521476378</v>
       </c>
       <c r="X14">
-        <v>3.007009792150191</v>
+        <v>3.30312770862373</v>
       </c>
       <c r="Y14" t="s">
         <v>138</v>
       </c>
       <c r="Z14" s="1">
-        <v>103.7653322855631</v>
+        <v>64.87249972025555</v>
       </c>
       <c r="AA14" s="1">
-        <v>110.8947122906027</v>
+        <v>71.32370878879431</v>
       </c>
       <c r="AB14" s="1">
-        <v>96.63595228052358</v>
+        <v>58.42129065171679</v>
       </c>
       <c r="AC14">
-        <v>5.26</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="AD14">
-        <v>4.41</v>
+        <v>2.92</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.07049999999999999</v>
+        <v>0.0645</v>
       </c>
       <c r="AF14" t="s">
         <v>158</v>
       </c>
-      <c r="AG14" s="1" t="s">
-        <v>170</v>
+      <c r="AG14" s="1">
+        <v>3</v>
       </c>
       <c r="AH14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AI14">
+        <v>28</v>
+      </c>
+      <c r="AJ14">
+        <v>7</v>
+      </c>
+      <c r="AK14">
         <v>14</v>
       </c>
-      <c r="AJ14">
-        <v>4</v>
-      </c>
-      <c r="AK14">
-        <v>9</v>
-      </c>
       <c r="AL14">
+        <v>6</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
         <v>1</v>
       </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
       <c r="AO14" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="AP14" s="2">
-        <v>0.6428571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="AQ14" s="2">
-        <v>0.07142857142857142</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AR14" s="2">
         <v>0</v>
       </c>
       <c r="AS14" s="2">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AT14" s="2">
-        <v>0.9285714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="AU14" s="2">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AV14" s="1">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="AW14" s="2">
-        <v>0.01801096319498829</v>
+        <v>-0.4872568240084452</v>
       </c>
       <c r="AX14" s="1">
-        <v>121.71429</v>
+        <v>61.0624</v>
       </c>
       <c r="AY14" s="2">
-        <v>0.1914084768989821</v>
+        <v>-0.07913738500980252</v>
       </c>
       <c r="AZ14" s="1">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="BA14" s="2">
-        <v>0.2725137039937354</v>
+        <v>0.1461318051575931</v>
       </c>
       <c r="BB14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="BC14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:55">
@@ -3245,166 +3233,160 @@
         <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G15" s="1">
-        <v>128.35</v>
+        <v>93.61</v>
       </c>
       <c r="H15">
-        <v>8.300000000000001</v>
+        <v>16.07</v>
       </c>
       <c r="I15">
-        <v>64.58</v>
+        <v>171.64</v>
       </c>
       <c r="J15">
-        <v>60</v>
+        <v>149.66</v>
       </c>
       <c r="K15" s="1">
-        <v>111.5749</v>
+        <v>66.30240000000001</v>
       </c>
       <c r="L15" s="2">
-        <v>0.1503483310314416</v>
+        <v>0.4118644272303867</v>
       </c>
       <c r="M15" s="1">
-        <v>97.62975</v>
+        <v>55.59625</v>
       </c>
       <c r="N15" s="2">
-        <v>0.3146607463401268</v>
-      </c>
-      <c r="O15">
-        <v>77.02</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.6664502726564528</v>
+        <v>0.6837466555747915</v>
       </c>
       <c r="Q15">
-        <v>4.650182724725568</v>
+        <v>7.752897082342145</v>
       </c>
       <c r="R15">
-        <v>5.834500184337975</v>
+        <v>7.846926859413356</v>
       </c>
       <c r="S15">
-        <v>74.58790682667734</v>
+        <v>70.50942339923802</v>
       </c>
       <c r="T15">
-        <v>80.76000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="U15">
-        <v>86.44</v>
+        <v>91.91</v>
       </c>
       <c r="V15">
-        <v>0.07797746862816765</v>
+        <v>18.23923553792677</v>
       </c>
       <c r="W15">
-        <v>50.88121274631023</v>
+        <v>63.84192589719879</v>
       </c>
       <c r="X15">
-        <v>1.344923902014872</v>
+        <v>4.94758579224883</v>
       </c>
       <c r="Y15" t="s">
         <v>139</v>
       </c>
       <c r="Z15" s="1">
-        <v>80.65683314005535</v>
+        <v>88.57183176676432</v>
       </c>
       <c r="AA15" s="1">
-        <v>135.7748844053506</v>
+        <v>98.18368463780368</v>
       </c>
       <c r="AB15" s="1">
-        <v>25.53878187476007</v>
+        <v>78.95997889572496</v>
       </c>
       <c r="AC15">
-        <v>3.13</v>
+        <v>7.63</v>
       </c>
       <c r="AD15">
-        <v>0.62</v>
+        <v>1.33</v>
       </c>
       <c r="AE15" s="2">
-        <v>0.0545</v>
+        <v>0.053200003</v>
       </c>
       <c r="AF15" t="s">
         <v>159</v>
       </c>
-      <c r="AG15" s="1" t="s">
-        <v>168</v>
+      <c r="AG15" s="1">
+        <v>1</v>
       </c>
       <c r="AH15" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI15">
+        <v>13</v>
+      </c>
+      <c r="AJ15">
+        <v>3</v>
+      </c>
+      <c r="AK15">
+        <v>9</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>34.13</v>
+      </c>
+      <c r="AW15" s="2">
+        <v>-0.6354022006195919</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>84.08692000000001</v>
+      </c>
+      <c r="AY15" s="2">
+        <v>-0.1017314389488302</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>100</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>0.06826193782715523</v>
+      </c>
+      <c r="BB15" t="s">
         <v>173</v>
       </c>
-      <c r="AI15">
-        <v>19</v>
-      </c>
-      <c r="AJ15">
-        <v>1</v>
-      </c>
-      <c r="AK15">
-        <v>1</v>
-      </c>
-      <c r="AL15">
-        <v>17</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="AP15" s="2">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="AQ15" s="2">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="AR15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="2">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="AU15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="1">
-        <v>129</v>
-      </c>
-      <c r="AW15" s="2">
-        <v>0.005064277366575814</v>
-      </c>
-      <c r="AX15" s="1">
-        <v>130.6</v>
-      </c>
-      <c r="AY15" s="2">
-        <v>0.01753019088430074</v>
-      </c>
-      <c r="AZ15" s="1">
-        <v>135</v>
-      </c>
-      <c r="BA15" s="2">
-        <v>0.05181145305804446</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>177</v>
-      </c>
       <c r="BC15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:55">
@@ -3412,166 +3394,166 @@
         <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
         <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F16" t="s">
         <v>127</v>
       </c>
       <c r="G16" s="1">
-        <v>47.98</v>
+        <v>294.66</v>
       </c>
       <c r="H16">
-        <v>10.74</v>
+        <v>10.56</v>
       </c>
       <c r="I16">
-        <v>215.45</v>
+        <v>35.83</v>
       </c>
       <c r="J16">
-        <v>194.53</v>
+        <v>35.69</v>
       </c>
       <c r="K16" s="1">
-        <v>50.5764</v>
+        <v>238.3796</v>
       </c>
       <c r="L16" s="2">
-        <v>-0.05133619632872254</v>
+        <v>0.2360957061761997</v>
       </c>
       <c r="M16" s="1">
-        <v>34.73345</v>
+        <v>228.81786</v>
       </c>
       <c r="N16" s="2">
-        <v>0.3813773178305063</v>
+        <v>0.2877491293730307</v>
       </c>
       <c r="O16">
-        <v>14.34</v>
+        <v>159.42</v>
       </c>
       <c r="P16" s="2">
-        <v>2.345885634588563</v>
+        <v>0.8483251787730526</v>
       </c>
       <c r="Q16">
-        <v>-1.397665453782103</v>
+        <v>17.11820373174237</v>
       </c>
       <c r="R16">
-        <v>-0.4701882833274802</v>
+        <v>15.6493798477397</v>
       </c>
       <c r="S16">
-        <v>45.74779904459474</v>
+        <v>73.46062162549384</v>
       </c>
       <c r="T16">
-        <v>20.35</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="U16">
-        <v>28.23</v>
+        <v>93.77</v>
       </c>
       <c r="V16">
-        <v>-19.73904228507135</v>
+        <v>14.01927485707173</v>
       </c>
       <c r="W16">
-        <v>47.01596802194646</v>
+        <v>66.5228247164188</v>
       </c>
       <c r="X16">
-        <v>4.843230082918397</v>
+        <v>9.875432078149259</v>
       </c>
       <c r="Y16" t="s">
         <v>140</v>
       </c>
       <c r="Z16" s="1">
-        <v>52.4810001373291</v>
+        <v>283.0223378499349</v>
       </c>
       <c r="AA16" s="1">
-        <v>65.75837713300945</v>
+        <v>301.2096199393338</v>
       </c>
       <c r="AB16" s="1">
-        <v>39.20362314164876</v>
+        <v>264.835055760536</v>
       </c>
       <c r="AC16">
-        <v>61.69</v>
+        <v>2.22</v>
       </c>
       <c r="AD16">
-        <v>1.47</v>
+        <v>3.91</v>
       </c>
       <c r="AE16" s="2">
-        <v>0.3423</v>
+        <v>0.0868</v>
       </c>
       <c r="AF16" t="s">
         <v>160</v>
       </c>
-      <c r="AG16" s="1" t="s">
+      <c r="AG16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH16" t="s">
         <v>168</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16">
+        <v>9</v>
+      </c>
+      <c r="AJ16">
+        <v>2</v>
+      </c>
+      <c r="AK16">
+        <v>3</v>
+      </c>
+      <c r="AL16">
+        <v>4</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>172.04</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>-0.416140636665988</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>256.00443</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>-0.1311870291183059</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>375</v>
+      </c>
+      <c r="BA16" s="2">
+        <v>0.2726532274485847</v>
+      </c>
+      <c r="BB16" t="s">
         <v>173</v>
       </c>
-      <c r="AI16">
-        <v>13</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>4</v>
-      </c>
-      <c r="AL16">
-        <v>7</v>
-      </c>
-      <c r="AM16">
-        <v>1</v>
-      </c>
-      <c r="AN16">
-        <v>1</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="AQ16" s="2">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="AR16" s="2">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="AS16" s="2">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="AT16" s="2">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="AU16" s="2">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="AV16" s="1">
-        <v>28</v>
-      </c>
-      <c r="AW16" s="2">
-        <v>-0.4164235097957482</v>
-      </c>
-      <c r="AX16" s="1">
-        <v>48.52833</v>
-      </c>
-      <c r="AY16" s="2">
-        <v>0.01142830345977491</v>
-      </c>
-      <c r="AZ16" s="1">
-        <v>85</v>
-      </c>
-      <c r="BA16" s="2">
-        <v>0.7715714881200502</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>177</v>
-      </c>
       <c r="BC16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:55">
@@ -3579,166 +3561,166 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
         <v>127</v>
       </c>
       <c r="G17" s="1">
-        <v>44.39</v>
+        <v>47.98</v>
       </c>
       <c r="H17">
-        <v>11.61</v>
+        <v>10.74</v>
       </c>
       <c r="I17">
-        <v>261.63</v>
+        <v>215.45</v>
       </c>
       <c r="J17">
-        <v>242.25</v>
+        <v>194.53</v>
       </c>
       <c r="K17" s="1">
-        <v>36.8328</v>
+        <v>50.5764</v>
       </c>
       <c r="L17" s="2">
-        <v>0.2051758215503574</v>
+        <v>-0.05133619632872254</v>
       </c>
       <c r="M17" s="1">
-        <v>29.22865</v>
+        <v>34.73345</v>
       </c>
       <c r="N17" s="2">
-        <v>0.5187153700222215</v>
+        <v>0.3813773178305063</v>
       </c>
       <c r="O17">
-        <v>14.02</v>
+        <v>14.34</v>
       </c>
       <c r="P17" s="2">
-        <v>2.166191155492154</v>
+        <v>2.345885634588563</v>
       </c>
       <c r="Q17">
-        <v>1.583087975078563</v>
+        <v>-1.397665453782103</v>
       </c>
       <c r="R17">
-        <v>1.36797757817973</v>
+        <v>-0.4701882833274802</v>
       </c>
       <c r="S17">
-        <v>60.47364815127145</v>
+        <v>45.74779904459474</v>
       </c>
       <c r="T17">
-        <v>60.58</v>
+        <v>20.35</v>
       </c>
       <c r="U17">
-        <v>48.98</v>
+        <v>28.23</v>
       </c>
       <c r="V17">
-        <v>15.50871464258084</v>
+        <v>-19.73904228507135</v>
       </c>
       <c r="W17">
-        <v>52.9367020478783</v>
+        <v>47.01596802194646</v>
       </c>
       <c r="X17">
-        <v>3.367090457038895</v>
+        <v>4.843230082918397</v>
       </c>
       <c r="Y17" t="s">
         <v>141</v>
       </c>
       <c r="Z17" s="1">
-        <v>45.20299898783366</v>
+        <v>52.4810001373291</v>
       </c>
       <c r="AA17" s="1">
-        <v>53.3329239322563</v>
+        <v>65.75837713300945</v>
       </c>
       <c r="AB17" s="1">
-        <v>37.07307404341102</v>
+        <v>39.20362314164876</v>
       </c>
       <c r="AC17">
-        <v>35.45</v>
+        <v>61.69</v>
       </c>
       <c r="AD17">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="AE17" s="2">
-        <v>0.1376</v>
+        <v>0.3423</v>
       </c>
       <c r="AF17" t="s">
         <v>161</v>
       </c>
-      <c r="AG17" s="1" t="s">
-        <v>170</v>
+      <c r="AG17" s="1">
+        <v>3</v>
       </c>
       <c r="AH17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AI17">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>4</v>
+      </c>
+      <c r="AL17">
+        <v>7</v>
+      </c>
+      <c r="AM17">
         <v>1</v>
       </c>
-      <c r="AK17">
-        <v>3</v>
-      </c>
-      <c r="AL17">
+      <c r="AN17">
         <v>1</v>
       </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
       <c r="AO17" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="2">
-        <v>0.6</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="AQ17" s="2">
-        <v>0.2</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="AR17" s="2">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AS17" s="2">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AT17" s="2">
-        <v>0.8</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="AU17" s="2">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AV17" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AW17" s="2">
-        <v>-0.3241721108357739</v>
+        <v>-0.4164235097957482</v>
       </c>
       <c r="AX17" s="1">
-        <v>43</v>
+        <v>48.52833</v>
       </c>
       <c r="AY17" s="2">
-        <v>-0.03131335886460916</v>
+        <v>0.01142830345977491</v>
       </c>
       <c r="AZ17" s="1">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="BA17" s="2">
-        <v>0.1263798152737103</v>
+        <v>0.7715714881200502</v>
       </c>
       <c r="BB17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="BC17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:55">
@@ -3746,166 +3728,166 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
         <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G18" s="1">
-        <v>294.66</v>
+        <v>102.16</v>
       </c>
       <c r="H18">
-        <v>10.56</v>
+        <v>8.83</v>
       </c>
       <c r="I18">
-        <v>35.83</v>
+        <v>86.48</v>
       </c>
       <c r="J18">
-        <v>35.69</v>
+        <v>84.95</v>
       </c>
       <c r="K18" s="1">
-        <v>238.3796</v>
+        <v>98.9295</v>
       </c>
       <c r="L18" s="2">
-        <v>0.2360957061761997</v>
+        <v>0.03265456714124697</v>
       </c>
       <c r="M18" s="1">
-        <v>228.81786</v>
+        <v>95.84865000000001</v>
       </c>
       <c r="N18" s="2">
-        <v>0.2877491293730307</v>
+        <v>0.06584704114246773</v>
       </c>
       <c r="O18">
-        <v>159.42</v>
+        <v>72.53</v>
       </c>
       <c r="P18" s="2">
-        <v>0.8483251787730526</v>
+        <v>0.4085206121604852</v>
       </c>
       <c r="Q18">
-        <v>17.11820373174237</v>
+        <v>0.6961796817270596</v>
       </c>
       <c r="R18">
-        <v>15.6493798477397</v>
+        <v>1.316603653257095</v>
       </c>
       <c r="S18">
-        <v>73.46062162549384</v>
+        <v>49.35530132224686</v>
       </c>
       <c r="T18">
-        <v>92.51000000000001</v>
+        <v>29.53</v>
       </c>
       <c r="U18">
-        <v>93.77</v>
+        <v>28.1</v>
       </c>
       <c r="V18">
-        <v>14.01927485707173</v>
+        <v>1.068462417382822</v>
       </c>
       <c r="W18">
-        <v>66.5228247164188</v>
+        <v>59.17481655667551</v>
       </c>
       <c r="X18">
-        <v>9.875432078149259</v>
+        <v>3.007009792150191</v>
       </c>
       <c r="Y18" t="s">
         <v>142</v>
       </c>
       <c r="Z18" s="1">
-        <v>283.0223378499349</v>
+        <v>103.7653322855631</v>
       </c>
       <c r="AA18" s="1">
-        <v>301.2096199393338</v>
+        <v>110.8947122906027</v>
       </c>
       <c r="AB18" s="1">
-        <v>264.835055760536</v>
+        <v>96.63595228052358</v>
       </c>
       <c r="AC18">
-        <v>2.22</v>
+        <v>5.26</v>
       </c>
       <c r="AD18">
-        <v>3.91</v>
+        <v>4.41</v>
       </c>
       <c r="AE18" s="2">
-        <v>0.0868</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="AF18" t="s">
         <v>162</v>
       </c>
-      <c r="AG18" s="1" t="s">
-        <v>168</v>
+      <c r="AG18" s="1">
+        <v>2</v>
       </c>
       <c r="AH18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI18">
+        <v>14</v>
+      </c>
+      <c r="AJ18">
+        <v>4</v>
+      </c>
+      <c r="AK18">
+        <v>9</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>104</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>0.01801096319498829</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>121.71429</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>0.1914084768989821</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>130</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>0.2725137039937354</v>
+      </c>
+      <c r="BB18" t="s">
         <v>173</v>
       </c>
-      <c r="AI18">
-        <v>9</v>
-      </c>
-      <c r="AJ18">
-        <v>2</v>
-      </c>
-      <c r="AK18">
-        <v>3</v>
-      </c>
-      <c r="AL18">
-        <v>4</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="AP18" s="2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AQ18" s="2">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="AR18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="2">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="AU18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="1">
-        <v>172.04</v>
-      </c>
-      <c r="AW18" s="2">
-        <v>-0.416140636665988</v>
-      </c>
-      <c r="AX18" s="1">
-        <v>256.00443</v>
-      </c>
-      <c r="AY18" s="2">
-        <v>-0.1311870291183059</v>
-      </c>
-      <c r="AZ18" s="1">
-        <v>375</v>
-      </c>
-      <c r="BA18" s="2">
-        <v>0.2726532274485847</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>177</v>
-      </c>
       <c r="BC18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:55">
@@ -3913,160 +3895,166 @@
         <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
         <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
         <v>126</v>
       </c>
       <c r="G19" s="1">
-        <v>66.31</v>
+        <v>128.35</v>
       </c>
       <c r="H19">
-        <v>10.06</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I19">
-        <v>147.83</v>
+        <v>64.58</v>
       </c>
       <c r="J19">
-        <v>145.22</v>
+        <v>60</v>
       </c>
       <c r="K19" s="1">
-        <v>53.9363</v>
+        <v>111.5749</v>
       </c>
       <c r="L19" s="2">
-        <v>0.2294132152186932</v>
+        <v>0.1503483310314416</v>
       </c>
       <c r="M19" s="1">
-        <v>43.575</v>
+        <v>97.62975</v>
       </c>
       <c r="N19" s="2">
-        <v>0.5217441193344807</v>
+        <v>0.3146607463401268</v>
+      </c>
+      <c r="O19">
+        <v>77.02</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.6664502726564528</v>
       </c>
       <c r="Q19">
-        <v>1.622890358796298</v>
+        <v>4.650182724725568</v>
       </c>
       <c r="R19">
-        <v>1.459504530908114</v>
+        <v>5.834500184337975</v>
       </c>
       <c r="S19">
-        <v>69.10478316705876</v>
+        <v>74.58790682667734</v>
       </c>
       <c r="T19">
-        <v>59.06</v>
+        <v>80.76000000000001</v>
       </c>
       <c r="U19">
-        <v>56.07</v>
+        <v>86.44</v>
       </c>
       <c r="V19">
-        <v>9.152259355709877</v>
+        <v>0.07797746862816765</v>
       </c>
       <c r="W19">
-        <v>54.08627521476378</v>
+        <v>50.88121274631023</v>
       </c>
       <c r="X19">
-        <v>3.30312770862373</v>
+        <v>1.344923902014872</v>
       </c>
       <c r="Y19" t="s">
         <v>143</v>
       </c>
       <c r="Z19" s="1">
-        <v>64.87249972025555</v>
+        <v>80.65683314005535</v>
       </c>
       <c r="AA19" s="1">
-        <v>71.32370878879431</v>
+        <v>135.7748844053506</v>
       </c>
       <c r="AB19" s="1">
-        <v>58.42129065171679</v>
+        <v>25.53878187476007</v>
       </c>
       <c r="AC19">
-        <v>8.390000000000001</v>
+        <v>3.13</v>
       </c>
       <c r="AD19">
-        <v>2.92</v>
+        <v>0.62</v>
       </c>
       <c r="AE19" s="2">
-        <v>0.0645</v>
+        <v>0.0545</v>
       </c>
       <c r="AF19" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH19" t="s">
         <v>168</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19">
+        <v>19</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>17</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>129</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>0.005064277366575814</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>130.6</v>
+      </c>
+      <c r="AY19" s="2">
+        <v>0.01753019088430074</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>135</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>0.05181145305804446</v>
+      </c>
+      <c r="BB19" t="s">
         <v>173</v>
       </c>
-      <c r="AI19">
-        <v>28</v>
-      </c>
-      <c r="AJ19">
-        <v>7</v>
-      </c>
-      <c r="AK19">
-        <v>14</v>
-      </c>
-      <c r="AL19">
-        <v>6</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AP19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AQ19" s="2">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="AR19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="2">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="AT19" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AU19" s="2">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="AV19" s="1">
-        <v>34</v>
-      </c>
-      <c r="AW19" s="2">
-        <v>-0.4872568240084452</v>
-      </c>
-      <c r="AX19" s="1">
-        <v>61.0624</v>
-      </c>
-      <c r="AY19" s="2">
-        <v>-0.07913738500980252</v>
-      </c>
-      <c r="AZ19" s="1">
-        <v>76</v>
-      </c>
-      <c r="BA19" s="2">
-        <v>0.1461318051575931</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>177</v>
-      </c>
       <c r="BC19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:55">
@@ -4074,116 +4062,116 @@
         <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
         <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
       </c>
       <c r="G20" s="1">
-        <v>150.18</v>
+        <v>52.76</v>
       </c>
       <c r="H20">
-        <v>8.630000000000001</v>
+        <v>8.69</v>
       </c>
       <c r="I20">
-        <v>57.49</v>
+        <v>164.66</v>
       </c>
       <c r="J20">
-        <v>55.03</v>
+        <v>162.65</v>
       </c>
       <c r="K20" s="1">
-        <v>144.637</v>
+        <v>42.4568</v>
       </c>
       <c r="L20" s="2">
-        <v>0.03832352717492762</v>
+        <v>0.2426749071997889</v>
       </c>
       <c r="M20" s="1">
-        <v>140.20535</v>
+        <v>45.53325</v>
       </c>
       <c r="N20" s="2">
-        <v>0.07114314824648273</v>
+        <v>0.1587136872505256</v>
       </c>
       <c r="O20">
-        <v>106.15</v>
+        <v>34.95</v>
       </c>
       <c r="P20" s="2">
-        <v>0.4147903909561941</v>
+        <v>0.5095851216022889</v>
       </c>
       <c r="Q20">
-        <v>1.622207034343148</v>
+        <v>2.694223602722069</v>
       </c>
       <c r="R20">
-        <v>2.545293037471623</v>
+        <v>2.809334141129248</v>
       </c>
       <c r="S20">
-        <v>50.73234441173717</v>
+        <v>69.350537741347</v>
       </c>
       <c r="T20">
-        <v>49.84</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="U20">
-        <v>62.21</v>
+        <v>89.19</v>
       </c>
       <c r="V20">
-        <v>-1.605196965637484</v>
+        <v>3.776550281634056</v>
       </c>
       <c r="W20">
-        <v>55.48672355102163</v>
+        <v>51.52495959668453</v>
       </c>
       <c r="X20">
-        <v>3.119563226909408</v>
+        <v>1.765907445852821</v>
       </c>
       <c r="Y20" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="Z20" s="1">
-        <v>152.2330001831055</v>
+        <v>52.44466565450032</v>
       </c>
       <c r="AA20" s="1">
-        <v>156.7905360922923</v>
+        <v>53.63305927749096</v>
       </c>
       <c r="AB20" s="1">
-        <v>147.6754642739187</v>
+        <v>51.25627203150967</v>
       </c>
       <c r="AC20">
-        <v>2.37</v>
+        <v>11.83</v>
       </c>
       <c r="AD20">
-        <v>5.8</v>
+        <v>2.83</v>
       </c>
       <c r="AE20" s="2">
-        <v>0.056700002</v>
+        <v>0.094399996</v>
       </c>
       <c r="AF20" t="s">
         <v>163</v>
       </c>
-      <c r="AG20" s="1" t="s">
+      <c r="AG20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH20" t="s">
         <v>170</v>
       </c>
-      <c r="AH20" t="s">
-        <v>175</v>
-      </c>
       <c r="AI20">
+        <v>10</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
         <v>6</v>
       </c>
-      <c r="AJ20">
-        <v>1</v>
-      </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>4</v>
       </c>
-      <c r="AL20">
-        <v>1</v>
-      </c>
       <c r="AM20">
         <v>0</v>
       </c>
@@ -4191,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="AO20" s="2">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="2">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="AQ20" s="2">
-        <v>0.1666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="AR20" s="2">
         <v>0</v>
@@ -4206,34 +4194,34 @@
         <v>0</v>
       </c>
       <c r="AT20" s="2">
-        <v>0.8333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="AU20" s="2">
         <v>0</v>
       </c>
       <c r="AV20" s="1">
-        <v>155</v>
+        <v>36.5</v>
       </c>
       <c r="AW20" s="2">
-        <v>0.03209481954987344</v>
+        <v>-0.3081880212282032</v>
       </c>
       <c r="AX20" s="1">
-        <v>165.16667</v>
+        <v>47.45</v>
       </c>
       <c r="AY20" s="2">
-        <v>0.09979138367292584</v>
+        <v>-0.100644427596664</v>
       </c>
       <c r="AZ20" s="1">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="BA20" s="2">
-        <v>0.1785856971634039</v>
+        <v>0.1372251705837756</v>
       </c>
       <c r="BB20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="BC20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:55">
@@ -4241,115 +4229,115 @@
         <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
         <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
         <v>126</v>
       </c>
       <c r="G21" s="1">
-        <v>52.76</v>
+        <v>150.18</v>
       </c>
       <c r="H21">
-        <v>8.69</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="I21">
-        <v>164.66</v>
+        <v>57.49</v>
       </c>
       <c r="J21">
-        <v>162.65</v>
+        <v>55.03</v>
       </c>
       <c r="K21" s="1">
-        <v>42.4568</v>
+        <v>144.637</v>
       </c>
       <c r="L21" s="2">
-        <v>0.2426749071997889</v>
+        <v>0.03832352717492762</v>
       </c>
       <c r="M21" s="1">
-        <v>45.53325</v>
+        <v>140.20535</v>
       </c>
       <c r="N21" s="2">
-        <v>0.1587136872505256</v>
+        <v>0.07114314824648273</v>
       </c>
       <c r="O21">
-        <v>34.95</v>
+        <v>106.15</v>
       </c>
       <c r="P21" s="2">
-        <v>0.5095851216022889</v>
+        <v>0.4147903909561941</v>
       </c>
       <c r="Q21">
-        <v>2.694223602722069</v>
+        <v>1.622207034343148</v>
       </c>
       <c r="R21">
-        <v>2.809334141129248</v>
+        <v>2.545293037471623</v>
       </c>
       <c r="S21">
-        <v>69.350537741347</v>
+        <v>50.73234441173717</v>
       </c>
       <c r="T21">
-        <v>89.98999999999999</v>
+        <v>49.84</v>
       </c>
       <c r="U21">
-        <v>89.19</v>
+        <v>62.21</v>
       </c>
       <c r="V21">
-        <v>3.776550281634056</v>
+        <v>-1.605196965637484</v>
       </c>
       <c r="W21">
-        <v>51.52495959668453</v>
+        <v>55.48672355102163</v>
       </c>
       <c r="X21">
-        <v>1.765907445852821</v>
+        <v>3.119563226909408</v>
       </c>
       <c r="Y21" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="Z21" s="1">
-        <v>52.44466565450032</v>
+        <v>152.2330001831055</v>
       </c>
       <c r="AA21" s="1">
-        <v>53.63305927749096</v>
+        <v>156.7905360922923</v>
       </c>
       <c r="AB21" s="1">
-        <v>51.25627203150967</v>
+        <v>147.6754642739187</v>
       </c>
       <c r="AC21">
-        <v>11.83</v>
+        <v>2.37</v>
       </c>
       <c r="AD21">
-        <v>2.83</v>
+        <v>5.8</v>
       </c>
       <c r="AE21" s="2">
-        <v>0.094399996</v>
+        <v>0.056700002</v>
       </c>
       <c r="AF21" t="s">
         <v>164</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AG21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH21" t="s">
         <v>170</v>
       </c>
-      <c r="AH21" t="s">
-        <v>175</v>
-      </c>
       <c r="AI21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -4358,13 +4346,13 @@
         <v>0</v>
       </c>
       <c r="AO21" s="2">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AP21" s="2">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AQ21" s="2">
-        <v>0.4</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR21" s="2">
         <v>0</v>
@@ -4373,34 +4361,34 @@
         <v>0</v>
       </c>
       <c r="AT21" s="2">
-        <v>0.6</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="AU21" s="2">
         <v>0</v>
       </c>
       <c r="AV21" s="1">
-        <v>36.5</v>
+        <v>155</v>
       </c>
       <c r="AW21" s="2">
-        <v>-0.3081880212282032</v>
+        <v>0.03209481954987344</v>
       </c>
       <c r="AX21" s="1">
-        <v>47.45</v>
+        <v>165.16667</v>
       </c>
       <c r="AY21" s="2">
-        <v>-0.100644427596664</v>
+        <v>0.09979138367292584</v>
       </c>
       <c r="AZ21" s="1">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="BA21" s="2">
-        <v>0.1372251705837756</v>
+        <v>0.1785856971634039</v>
       </c>
       <c r="BB21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="BC21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:55">
@@ -4428,9 +4416,6 @@
       <c r="AF22" t="s">
         <v>165</v>
       </c>
-      <c r="AG22" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="AH22" t="s">
         <v>172</v>
       </c>
@@ -4471,39 +4456,57 @@
         <v>-1</v>
       </c>
       <c r="BB22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="BC22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:55">
       <c r="A23" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
       <c r="G23" s="1">
-        <v>10.15</v>
+        <v>10.1</v>
+      </c>
+      <c r="H23">
+        <v>0.3</v>
+      </c>
+      <c r="I23">
+        <v>23.65</v>
+      </c>
+      <c r="J23">
+        <v>23.45</v>
       </c>
       <c r="K23" s="1">
-        <v>10.104466</v>
+        <v>10.05206</v>
       </c>
       <c r="L23" s="2">
-        <v>0.004506324233264772</v>
+        <v>0.004769171692170436</v>
       </c>
       <c r="M23" s="1">
-        <v>10.104466</v>
+        <v>10.0261965</v>
       </c>
       <c r="N23" s="2">
-        <v>0.004506324233264772</v>
+        <v>0.007361066581928686</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE23" s="2">
         <v>0</v>
       </c>
-      <c r="AG23" s="1" t="s">
-        <v>172</v>
+      <c r="AF23" t="s">
+        <v>165</v>
       </c>
       <c r="AH23" t="s">
         <v>172</v>
@@ -4545,10 +4548,10 @@
         <v>-1</v>
       </c>
       <c r="BB23" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC23" t="s">
         <v>177</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:55">
@@ -4570,9 +4573,6 @@
       <c r="AE24" s="2">
         <v>0</v>
       </c>
-      <c r="AG24" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="AH24" t="s">
         <v>172</v>
       </c>
@@ -4613,108 +4613,39 @@
         <v>-1</v>
       </c>
       <c r="BB24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="BC24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:55">
       <c r="A25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" t="s">
-        <v>126</v>
-      </c>
       <c r="G25" s="1">
-        <v>2.34</v>
+        <v>10.035</v>
       </c>
       <c r="H25">
-        <v>0.05</v>
-      </c>
-      <c r="I25">
-        <v>20.4</v>
-      </c>
-      <c r="J25">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="K25" s="1">
-        <v>1.7862</v>
+        <v>10.03625</v>
       </c>
       <c r="L25" s="2">
-        <v>0.3100436681222706</v>
+        <v>-0.0001245485116453496</v>
       </c>
       <c r="M25" s="1">
-        <v>1.6219</v>
+        <v>10.03625</v>
       </c>
       <c r="N25" s="2">
-        <v>0.4427523275171096</v>
-      </c>
-      <c r="O25">
-        <v>2.34</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0.1540178182350311</v>
-      </c>
-      <c r="R25">
-        <v>0.1139093068937821</v>
-      </c>
-      <c r="S25">
-        <v>78.72155417357945</v>
-      </c>
-      <c r="T25">
-        <v>77.89</v>
-      </c>
-      <c r="U25">
-        <v>80.36</v>
-      </c>
-      <c r="V25">
-        <v>26.48648021689647</v>
-      </c>
-      <c r="W25">
-        <v>86.54894501245248</v>
-      </c>
-      <c r="X25">
-        <v>0.1535895746143465</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>2.436999932924906</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>2.717140163113141</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>2.156859702736671</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
+        <v>-0.0001245485116453496</v>
       </c>
       <c r="AD25">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="2">
-        <v>0.0011</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -4753,60 +4684,36 @@
         <v>-1</v>
       </c>
       <c r="BB25" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC25" t="s">
         <v>177</v>
-      </c>
-      <c r="BC25" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:55">
       <c r="A26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>109</v>
-      </c>
       <c r="G26" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="H26">
-        <v>0.3</v>
-      </c>
-      <c r="I26">
-        <v>23.65</v>
-      </c>
-      <c r="J26">
-        <v>23.45</v>
+        <v>10.15</v>
       </c>
       <c r="K26" s="1">
-        <v>10.05206</v>
+        <v>10.104466</v>
       </c>
       <c r="L26" s="2">
-        <v>0.004769171692170436</v>
+        <v>0.004506324233264772</v>
       </c>
       <c r="M26" s="1">
-        <v>10.0261965</v>
+        <v>10.104466</v>
       </c>
       <c r="N26" s="2">
-        <v>0.007361066581928686</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
+        <v>0.004506324233264772</v>
       </c>
       <c r="AD26">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2">
         <v>0</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG26" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AH26" t="s">
         <v>172</v>
@@ -4848,10 +4755,10 @@
         <v>-1</v>
       </c>
       <c r="BB26" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC26" t="s">
         <v>177</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:55">
@@ -4859,166 +4766,139 @@
         <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
         <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G27" s="1">
-        <v>28.66</v>
+        <v>2.34</v>
       </c>
       <c r="H27">
-        <v>1.61</v>
+        <v>0.05</v>
       </c>
       <c r="I27">
-        <v>56.14</v>
+        <v>20.4</v>
       </c>
       <c r="J27">
-        <v>52.55</v>
+        <v>4.03</v>
       </c>
       <c r="K27" s="1">
-        <v>18.1105</v>
+        <v>1.7862</v>
       </c>
       <c r="L27" s="2">
-        <v>0.5825073852185199</v>
+        <v>0.3100436681222706</v>
       </c>
       <c r="M27" s="1">
-        <v>22.354475</v>
+        <v>1.6219</v>
       </c>
       <c r="N27" s="2">
-        <v>0.2820699211231755</v>
+        <v>0.4427523275171096</v>
       </c>
       <c r="O27">
-        <v>10.32</v>
+        <v>2.34</v>
       </c>
       <c r="P27" s="2">
-        <v>1.777131782945736</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>2.838735794704057</v>
+        <v>0.1540178182350311</v>
       </c>
       <c r="R27">
-        <v>2.167838781935306</v>
+        <v>0.1139093068937821</v>
       </c>
       <c r="S27">
-        <v>72.60269304211143</v>
+        <v>78.72155417357945</v>
       </c>
       <c r="T27">
-        <v>87.87</v>
+        <v>77.89</v>
       </c>
       <c r="U27">
-        <v>86.66</v>
+        <v>80.36</v>
       </c>
       <c r="V27">
-        <v>67.70040720609477</v>
+        <v>26.48648021689647</v>
       </c>
       <c r="W27">
-        <v>66.67902909593744</v>
+        <v>86.54894501245248</v>
       </c>
       <c r="X27">
-        <v>2.413752540750421</v>
+        <v>0.1535895746143465</v>
       </c>
       <c r="Y27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z27" s="1">
-        <v>26.88500016530355</v>
+        <v>2.436999932924906</v>
       </c>
       <c r="AA27" s="1">
-        <v>33.23950522818716</v>
+        <v>2.717140163113141</v>
       </c>
       <c r="AB27" s="1">
-        <v>20.53049510241994</v>
+        <v>2.156859702736671</v>
       </c>
       <c r="AC27">
-        <v>12.01</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>3</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE27" s="2">
-        <v>0.2233</v>
+        <v>0.0011</v>
       </c>
       <c r="AF27" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG27" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH27" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AZ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BB27" t="s">
         <v>173</v>
       </c>
-      <c r="AI27">
-        <v>5</v>
-      </c>
-      <c r="AJ27">
-        <v>2</v>
-      </c>
-      <c r="AK27">
-        <v>2</v>
-      </c>
-      <c r="AL27">
-        <v>1</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AP27" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AQ27" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AR27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AU27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV27" s="1">
-        <v>13</v>
-      </c>
-      <c r="AW27" s="2">
-        <v>-0.5464061409630147</v>
-      </c>
-      <c r="AX27" s="1">
-        <v>31.2</v>
-      </c>
-      <c r="AY27" s="2">
-        <v>0.08862526168876479</v>
-      </c>
-      <c r="AZ27" s="1">
-        <v>50</v>
-      </c>
-      <c r="BA27" s="2">
-        <v>0.7445917655268667</v>
-      </c>
-      <c r="BB27" t="s">
+      <c r="BC27" t="s">
         <v>177</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:55">
@@ -5029,163 +4909,88 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G28" s="1">
-        <v>11.69</v>
+        <v>10.4</v>
       </c>
       <c r="H28">
-        <v>7.71</v>
+        <v>0.26</v>
       </c>
       <c r="I28">
-        <v>659.51</v>
+        <v>25.18</v>
       </c>
       <c r="J28">
-        <v>653.23</v>
+        <v>23.45</v>
       </c>
       <c r="K28" s="1">
-        <v>11.0616</v>
+        <v>10.28444</v>
       </c>
       <c r="L28" s="2">
-        <v>0.05680914153467845</v>
+        <v>0.01123639206412798</v>
       </c>
       <c r="M28" s="1">
-        <v>13.2248</v>
+        <v>10.201642</v>
       </c>
       <c r="N28" s="2">
-        <v>-0.1160546851370153</v>
-      </c>
-      <c r="O28">
-        <v>14.53</v>
-      </c>
-      <c r="P28" s="2">
-        <v>-0.1954576737783895</v>
-      </c>
-      <c r="Q28">
-        <v>0.08920809881021086</v>
-      </c>
-      <c r="R28">
-        <v>0.01262076002414907</v>
-      </c>
-      <c r="S28">
-        <v>58.54033153619</v>
-      </c>
-      <c r="T28">
-        <v>61.47</v>
-      </c>
-      <c r="U28">
-        <v>48.48</v>
-      </c>
-      <c r="V28">
-        <v>7.247706325695715</v>
-      </c>
-      <c r="W28">
-        <v>72.75042225525793</v>
-      </c>
-      <c r="X28">
-        <v>0.4170793495839084</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>11.60000003178915</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>11.87351401379359</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>11.3264860497847</v>
+        <v>0.01944373268538542</v>
       </c>
       <c r="AC28">
-        <v>67.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>1.2</v>
+        <v>0.02</v>
       </c>
       <c r="AE28" s="2">
-        <v>0.1026</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG28" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AH28" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AZ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BB28" t="s">
         <v>174</v>
       </c>
-      <c r="AI28">
-        <v>24</v>
-      </c>
-      <c r="AJ28">
-        <v>3</v>
-      </c>
-      <c r="AK28">
-        <v>10</v>
-      </c>
-      <c r="AL28">
-        <v>10</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="AP28" s="2">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="AQ28" s="2">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="AR28" s="2">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="AS28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="2">
-        <v>0.5416666666666667</v>
-      </c>
-      <c r="AU28" s="2">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="AV28" s="1">
-        <v>8</v>
-      </c>
-      <c r="AW28" s="2">
-        <v>-0.3156544054747648</v>
-      </c>
-      <c r="AX28" s="1">
-        <v>13.48739</v>
-      </c>
-      <c r="AY28" s="2">
-        <v>0.1537544910179641</v>
-      </c>
-      <c r="AZ28" s="1">
-        <v>20</v>
-      </c>
-      <c r="BA28" s="2">
-        <v>0.7108639863130882</v>
-      </c>
-      <c r="BB28" t="s">
+      <c r="BC28" t="s">
         <v>177</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:55">
@@ -5196,7 +5001,7 @@
         <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G29" s="1">
         <v>0.8393</v>
@@ -5253,7 +5058,7 @@
         <v>0.04006867158756453</v>
       </c>
       <c r="Y29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z29" s="1">
         <v>0.8239999910195668</v>
@@ -5274,7 +5079,7 @@
         <v>0.010299999</v>
       </c>
       <c r="AF29" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -5313,10 +5118,10 @@
         <v>-1</v>
       </c>
       <c r="BB29" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC29" t="s">
         <v>177</v>
-      </c>
-      <c r="BC29" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:55">
@@ -5324,165 +5129,333 @@
         <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" t="s">
+        <v>126</v>
       </c>
       <c r="G30" s="1">
-        <v>10.4</v>
+        <v>11.69</v>
       </c>
       <c r="H30">
-        <v>0.26</v>
+        <v>7.71</v>
       </c>
       <c r="I30">
-        <v>25.18</v>
+        <v>659.51</v>
       </c>
       <c r="J30">
-        <v>23.45</v>
+        <v>653.23</v>
       </c>
       <c r="K30" s="1">
-        <v>10.28444</v>
+        <v>11.0616</v>
       </c>
       <c r="L30" s="2">
-        <v>0.01123639206412798</v>
+        <v>0.05680914153467845</v>
       </c>
       <c r="M30" s="1">
-        <v>10.201642</v>
+        <v>13.2248</v>
       </c>
       <c r="N30" s="2">
-        <v>0.01944373268538542</v>
+        <v>-0.1160546851370153</v>
+      </c>
+      <c r="O30">
+        <v>14.53</v>
+      </c>
+      <c r="P30" s="2">
+        <v>-0.1954576737783895</v>
+      </c>
+      <c r="Q30">
+        <v>0.08920809881021086</v>
+      </c>
+      <c r="R30">
+        <v>0.01262076002414907</v>
+      </c>
+      <c r="S30">
+        <v>58.54033153619</v>
+      </c>
+      <c r="T30">
+        <v>61.47</v>
+      </c>
+      <c r="U30">
+        <v>48.48</v>
+      </c>
+      <c r="V30">
+        <v>7.247706325695715</v>
+      </c>
+      <c r="W30">
+        <v>72.75042225525793</v>
+      </c>
+      <c r="X30">
+        <v>0.4170793495839084</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>11.60000003178915</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>11.87351401379359</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>11.3264860497847</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="AD30">
-        <v>0.02</v>
+        <v>1.2</v>
       </c>
       <c r="AE30" s="2">
-        <v>0</v>
+        <v>0.1026</v>
       </c>
       <c r="AF30" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG30" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>4</v>
       </c>
       <c r="AH30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN30">
         <v>0</v>
       </c>
+      <c r="AO30" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AQ30" s="2">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AR30" s="2">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="AS30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>0.5416666666666667</v>
+      </c>
+      <c r="AU30" s="2">
+        <v>0.04166666666666666</v>
+      </c>
       <c r="AV30" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW30" s="2">
-        <v>-1</v>
+        <v>-0.3156544054747648</v>
       </c>
       <c r="AX30" s="1">
-        <v>0</v>
+        <v>13.48739</v>
       </c>
       <c r="AY30" s="2">
-        <v>-1</v>
+        <v>0.1537544910179641</v>
       </c>
       <c r="AZ30" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA30" s="2">
-        <v>-1</v>
+        <v>0.7108639863130882</v>
       </c>
       <c r="BB30" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="BC30" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:55">
       <c r="A31" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
+      </c>
       <c r="G31" s="1">
-        <v>10.035</v>
+        <v>28.66</v>
       </c>
       <c r="H31">
+        <v>1.61</v>
+      </c>
+      <c r="I31">
+        <v>56.14</v>
+      </c>
+      <c r="J31">
+        <v>52.55</v>
+      </c>
+      <c r="K31" s="1">
+        <v>18.1105</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.5825073852185199</v>
+      </c>
+      <c r="M31" s="1">
+        <v>22.354475</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.2820699211231755</v>
+      </c>
+      <c r="O31">
+        <v>10.32</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1.777131782945736</v>
+      </c>
+      <c r="Q31">
+        <v>2.838735794704057</v>
+      </c>
+      <c r="R31">
+        <v>2.167838781935306</v>
+      </c>
+      <c r="S31">
+        <v>72.60269304211143</v>
+      </c>
+      <c r="T31">
+        <v>87.87</v>
+      </c>
+      <c r="U31">
+        <v>86.66</v>
+      </c>
+      <c r="V31">
+        <v>67.70040720609477</v>
+      </c>
+      <c r="W31">
+        <v>66.67902909593744</v>
+      </c>
+      <c r="X31">
+        <v>2.413752540750421</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>26.88500016530355</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>33.23950522818716</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>20.53049510241994</v>
+      </c>
+      <c r="AC31">
+        <v>12.01</v>
+      </c>
+      <c r="AD31">
+        <v>3</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>0.2233</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI31">
+        <v>5</v>
+      </c>
+      <c r="AJ31">
+        <v>2</v>
+      </c>
+      <c r="AK31">
+        <v>2</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="2">
         <v>0.4</v>
       </c>
-      <c r="K31" s="1">
-        <v>10.03625</v>
-      </c>
-      <c r="L31" s="2">
-        <v>-0.0001245485116453496</v>
-      </c>
-      <c r="M31" s="1">
-        <v>10.03625</v>
-      </c>
-      <c r="N31" s="2">
-        <v>-0.0001245485116453496</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
+      <c r="AP31" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AU31" s="2">
         <v>0</v>
       </c>
       <c r="AV31" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AW31" s="2">
-        <v>-1</v>
+        <v>-0.5464061409630147</v>
       </c>
       <c r="AX31" s="1">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="AY31" s="2">
-        <v>-1</v>
+        <v>0.08862526168876479</v>
       </c>
       <c r="AZ31" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BA31" s="2">
-        <v>-1</v>
+        <v>0.7445917655268667</v>
       </c>
       <c r="BB31" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC31" t="s">
         <v>177</v>
-      </c>
-      <c r="BC31" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
